--- a/public/tor_gor_translations.xlsx
+++ b/public/tor_gor_translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdefalco\Desktop\Git\TCE.ai-Client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23963B62-614D-48F7-8655-DD8ADC8A2D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE59650F-6700-40CA-862B-20E7C91A61AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,12 +67,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,9 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -114,13 +116,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -131,6 +129,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,7 +1183,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="10">
+      <c r="A89" s="8">
         <v>21.4375</v>
       </c>
       <c r="B89" s="2">
@@ -1180,7 +1191,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="10">
+      <c r="A90" s="8">
         <v>21.5</v>
       </c>
       <c r="B90" s="2">
@@ -1188,7 +1199,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="10">
+      <c r="A91" s="8">
         <v>21.75</v>
       </c>
       <c r="B91" s="2">
@@ -1196,7 +1207,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="10">
+      <c r="A92" s="8">
         <v>22</v>
       </c>
       <c r="B92" s="2">
@@ -1204,7 +1215,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="10">
+      <c r="A93" s="8">
         <v>22.25</v>
       </c>
       <c r="B93" s="2">
@@ -1212,7 +1223,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="10">
+      <c r="A94" s="8">
         <v>22.5</v>
       </c>
       <c r="B94" s="2">
@@ -1220,7 +1231,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="10">
+      <c r="A95" s="8">
         <v>22.75</v>
       </c>
       <c r="B95" s="2">
@@ -1228,7 +1239,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="10">
+      <c r="A96" s="8">
         <v>23</v>
       </c>
       <c r="B96" s="2">
@@ -1236,7 +1247,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="10">
+      <c r="A97" s="8">
         <v>23.25</v>
       </c>
       <c r="B97" s="2">
@@ -1244,7 +1255,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="10">
+      <c r="A98" s="8">
         <v>23.5</v>
       </c>
       <c r="B98" s="2">
@@ -1252,7 +1263,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="10">
+      <c r="A99" s="8">
         <v>23.75</v>
       </c>
       <c r="B99" s="2">
@@ -1260,7 +1271,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="10">
+      <c r="A100" s="8">
         <v>24</v>
       </c>
       <c r="B100" s="2">
@@ -1268,7 +1279,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="10">
+      <c r="A101" s="8">
         <v>24.25</v>
       </c>
       <c r="B101" s="2">
@@ -1276,7 +1287,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="10">
+      <c r="A102" s="8">
         <v>24.5</v>
       </c>
       <c r="B102" s="2">
@@ -1284,7 +1295,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="10">
+      <c r="A103" s="8">
         <v>24.75</v>
       </c>
       <c r="B103" s="2">
@@ -1292,7 +1303,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="10">
+      <c r="A104" s="8">
         <v>25</v>
       </c>
       <c r="B104" s="2">
@@ -1300,7 +1311,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="10">
+      <c r="A105" s="8">
         <v>25.25</v>
       </c>
       <c r="B105" s="2">
@@ -1308,7 +1319,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="10">
+      <c r="A106" s="8">
         <v>25.5</v>
       </c>
       <c r="B106" s="2">
@@ -1316,7 +1327,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="10">
+      <c r="A107" s="8">
         <v>25.75</v>
       </c>
       <c r="B107" s="2">
@@ -1324,7 +1335,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="10">
+      <c r="A108" s="8">
         <v>26</v>
       </c>
       <c r="B108" s="2">
@@ -1332,7 +1343,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="10">
+      <c r="A109" s="8">
         <v>26.25</v>
       </c>
       <c r="B109" s="2">
@@ -1340,7 +1351,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="10">
+      <c r="A110" s="8">
         <v>26.5</v>
       </c>
       <c r="B110" s="2">
@@ -1348,7 +1359,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="10">
+      <c r="A111" s="8">
         <v>26.75</v>
       </c>
       <c r="B111" s="2">
@@ -1356,7 +1367,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="10">
+      <c r="A112" s="8">
         <v>27</v>
       </c>
       <c r="B112" s="2">
@@ -1364,7 +1375,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="10">
+      <c r="A113" s="8">
         <v>27.25</v>
       </c>
       <c r="B113" s="2">
@@ -1372,7 +1383,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="10">
+      <c r="A114" s="8">
         <v>27.5</v>
       </c>
       <c r="B114" s="2">
@@ -1380,7 +1391,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="10">
+      <c r="A115" s="8">
         <v>27.75</v>
       </c>
       <c r="B115" s="2">
@@ -1388,7 +1399,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="10">
+      <c r="A116" s="8">
         <v>28</v>
       </c>
       <c r="B116" s="2">
@@ -1396,7 +1407,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="10">
+      <c r="A117" s="8">
         <v>28.25</v>
       </c>
       <c r="B117" s="2">
@@ -1404,7 +1415,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="10">
+      <c r="A118" s="8">
         <v>28.5</v>
       </c>
       <c r="B118" s="2">
@@ -1412,7 +1423,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="10">
+      <c r="A119" s="8">
         <v>28.75</v>
       </c>
       <c r="B119" s="2">
@@ -1420,7 +1431,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="10">
+      <c r="A120" s="8">
         <v>29</v>
       </c>
       <c r="B120" s="2">
@@ -1428,7 +1439,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="10">
+      <c r="A121" s="8">
         <v>29.25</v>
       </c>
       <c r="B121" s="2">
@@ -1436,7 +1447,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="10">
+      <c r="A122" s="8">
         <v>29.5</v>
       </c>
       <c r="B122" s="2">
@@ -1444,7 +1455,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="10">
+      <c r="A123" s="8">
         <v>29.75</v>
       </c>
       <c r="B123" s="2">
@@ -1452,7 +1463,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="10">
+      <c r="A124" s="8">
         <v>30</v>
       </c>
       <c r="B124" s="2">
@@ -1460,7 +1471,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="10">
+      <c r="A125" s="8">
         <v>30.25</v>
       </c>
       <c r="B125" s="2">
@@ -1468,7 +1479,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="10">
+      <c r="A126" s="8">
         <v>30.5</v>
       </c>
       <c r="B126" s="2">
@@ -1476,7 +1487,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="10">
+      <c r="A127" s="8">
         <v>30.75</v>
       </c>
       <c r="B127" s="2">
@@ -1484,7 +1495,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="10">
+      <c r="A128" s="8">
         <v>31</v>
       </c>
       <c r="B128" s="2">
@@ -1492,7 +1503,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="10">
+      <c r="A129" s="8">
         <v>31.25</v>
       </c>
       <c r="B129" s="2">
@@ -1500,7 +1511,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="10">
+      <c r="A130" s="8">
         <v>31.5</v>
       </c>
       <c r="B130" s="2">
@@ -1508,7 +1519,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="10">
+      <c r="A131" s="8">
         <v>31.75</v>
       </c>
       <c r="B131" s="2">
@@ -1516,7 +1527,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="10">
+      <c r="A132" s="8">
         <v>32</v>
       </c>
       <c r="B132" s="2">
@@ -1524,7 +1535,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="10">
+      <c r="A133" s="8">
         <v>32.25</v>
       </c>
       <c r="B133" s="2">
@@ -1532,7 +1543,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="10">
+      <c r="A134" s="8">
         <v>32.5</v>
       </c>
       <c r="B134" s="2">
@@ -1540,7 +1551,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="10">
+      <c r="A135" s="8">
         <v>32.75</v>
       </c>
       <c r="B135" s="2">
@@ -1548,7 +1559,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="10">
+      <c r="A136" s="8">
         <v>33</v>
       </c>
       <c r="B136" s="2">
@@ -1556,7 +1567,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="10">
+      <c r="A137" s="8">
         <v>33.25</v>
       </c>
       <c r="B137" s="2">
@@ -1564,7 +1575,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="10">
+      <c r="A138" s="8">
         <v>33.5</v>
       </c>
       <c r="B138" s="2">
@@ -1572,7 +1583,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="10">
+      <c r="A139" s="8">
         <v>33.75</v>
       </c>
       <c r="B139" s="2">
@@ -1580,7 +1591,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="10">
+      <c r="A140" s="8">
         <v>34</v>
       </c>
       <c r="B140" s="2">
@@ -1588,7 +1599,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="10">
+      <c r="A141" s="8">
         <v>34.25</v>
       </c>
       <c r="B141" s="2">
@@ -1596,7 +1607,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="10">
+      <c r="A142" s="8">
         <v>34.5</v>
       </c>
       <c r="B142" s="2">
@@ -1604,7 +1615,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="10">
+      <c r="A143" s="8">
         <v>34.75</v>
       </c>
       <c r="B143" s="2">
@@ -1612,7 +1623,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="10">
+      <c r="A144" s="8">
         <v>35</v>
       </c>
       <c r="B144" s="2">
@@ -1620,7 +1631,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="10">
+      <c r="A145" s="8">
         <v>35.25</v>
       </c>
       <c r="B145" s="2">
@@ -1628,7 +1639,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="10">
+      <c r="A146" s="8">
         <v>35.5</v>
       </c>
       <c r="B146" s="2">
@@ -1636,7 +1647,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="10">
+      <c r="A147" s="8">
         <v>35.75</v>
       </c>
       <c r="B147" s="2">
@@ -1644,7 +1655,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="10">
+      <c r="A148" s="8">
         <v>36</v>
       </c>
       <c r="B148" s="2">
@@ -1652,7 +1663,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="10">
+      <c r="A149" s="8">
         <v>36.25</v>
       </c>
       <c r="B149" s="2">
@@ -1660,7 +1671,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="10">
+      <c r="A150" s="8">
         <v>36.5</v>
       </c>
       <c r="B150" s="2">
@@ -1668,7 +1679,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="10">
+      <c r="A151" s="8">
         <v>36.75</v>
       </c>
       <c r="B151" s="2">
@@ -1676,7 +1687,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="10">
+      <c r="A152" s="8">
         <v>37</v>
       </c>
       <c r="B152" s="2">
@@ -1684,7 +1695,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="10">
+      <c r="A153" s="8">
         <v>37.25</v>
       </c>
       <c r="B153" s="2">
@@ -1692,7 +1703,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="10">
+      <c r="A154" s="8">
         <v>37.5</v>
       </c>
       <c r="B154" s="2">
@@ -1700,7 +1711,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="10">
+      <c r="A155" s="8">
         <v>37.75</v>
       </c>
       <c r="B155" s="2">
@@ -1708,7 +1719,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="10">
+      <c r="A156" s="8">
         <v>38</v>
       </c>
       <c r="B156" s="2">
@@ -1716,7 +1727,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="10">
+      <c r="A157" s="8">
         <v>38.25</v>
       </c>
       <c r="B157" s="2">
@@ -1724,7 +1735,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="10">
+      <c r="A158" s="8">
         <v>38.5</v>
       </c>
       <c r="B158" s="2">
@@ -1732,7 +1743,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="10">
+      <c r="A159" s="8">
         <v>38.75</v>
       </c>
       <c r="B159" s="2">
@@ -1740,7 +1751,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="10">
+      <c r="A160" s="8">
         <v>39</v>
       </c>
       <c r="B160" s="2">
@@ -1748,7 +1759,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="10">
+      <c r="A161" s="8">
         <v>39.25</v>
       </c>
       <c r="B161" s="2">
@@ -1756,7 +1767,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="10">
+      <c r="A162" s="8">
         <v>39.5</v>
       </c>
       <c r="B162" s="2">
@@ -1764,7 +1775,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="10">
+      <c r="A163" s="8">
         <v>39.75</v>
       </c>
       <c r="B163" s="2">
@@ -1772,7 +1783,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="10">
+      <c r="A164" s="8">
         <v>40</v>
       </c>
       <c r="B164" s="2">
@@ -1780,7 +1791,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="10">
+      <c r="A165" s="8">
         <v>40.25</v>
       </c>
       <c r="B165" s="2">
@@ -1788,7 +1799,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="10">
+      <c r="A166" s="8">
         <v>40.5</v>
       </c>
       <c r="B166" s="2">
@@ -1796,7 +1807,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="10">
+      <c r="A167" s="8">
         <v>40.75</v>
       </c>
       <c r="B167" s="2">
@@ -1804,7 +1815,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="10">
+      <c r="A168" s="8">
         <v>41</v>
       </c>
       <c r="B168" s="2">
@@ -1812,7 +1823,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="10">
+      <c r="A169" s="8">
         <v>41.25</v>
       </c>
       <c r="B169" s="2">
@@ -1820,7 +1831,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="10">
+      <c r="A170" s="8">
         <v>41.5</v>
       </c>
       <c r="B170" s="2">
@@ -1828,7 +1839,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="10">
+      <c r="A171" s="8">
         <v>41.75</v>
       </c>
       <c r="B171" s="2">
@@ -1836,7 +1847,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="10">
+      <c r="A172" s="8">
         <v>42</v>
       </c>
       <c r="B172" s="2">
@@ -1844,7 +1855,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="10">
+      <c r="A173" s="8">
         <v>42.25</v>
       </c>
       <c r="B173" s="2">
@@ -1852,7 +1863,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="10">
+      <c r="A174" s="8">
         <v>42.375</v>
       </c>
       <c r="B174" s="2">
@@ -1860,7 +1871,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="10">
+      <c r="A175" s="8">
         <v>42.5</v>
       </c>
       <c r="B175" s="2">
@@ -1868,7 +1879,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="10">
+      <c r="A176" s="8">
         <v>42.75</v>
       </c>
       <c r="B176" s="2">
@@ -1876,7 +1887,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="10">
+      <c r="A177" s="8">
         <v>43</v>
       </c>
       <c r="B177" s="2">
@@ -1884,7 +1895,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="10">
+      <c r="A178" s="8">
         <v>43.25</v>
       </c>
       <c r="B178" s="2">
@@ -1892,7 +1903,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="10">
+      <c r="A179" s="8">
         <v>43.5</v>
       </c>
       <c r="B179" s="2">
@@ -1900,7 +1911,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="10">
+      <c r="A180" s="8">
         <v>43.75</v>
       </c>
       <c r="B180" s="2">
@@ -1908,7 +1919,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="10">
+      <c r="A181" s="8">
         <v>44</v>
       </c>
       <c r="B181" s="2">
@@ -1916,7 +1927,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="10">
+      <c r="A182" s="8">
         <v>44.25</v>
       </c>
       <c r="B182" s="2">
@@ -1924,7 +1935,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="10">
+      <c r="A183" s="8">
         <v>44.5</v>
       </c>
       <c r="B183" s="2">
@@ -1932,7 +1943,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="10">
+      <c r="A184" s="8">
         <v>44.75</v>
       </c>
       <c r="B184" s="2">
@@ -1940,7 +1951,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="10">
+      <c r="A185" s="8">
         <v>45</v>
       </c>
       <c r="B185" s="2">
@@ -1948,7 +1959,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="10">
+      <c r="A186" s="8">
         <v>45.25</v>
       </c>
       <c r="B186" s="2">
@@ -1956,7 +1967,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="10">
+      <c r="A187" s="8">
         <v>45.5</v>
       </c>
       <c r="B187" s="2">
@@ -1964,7 +1975,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="10">
+      <c r="A188" s="8">
         <v>45.75</v>
       </c>
       <c r="B188" s="2">
@@ -1972,7 +1983,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="10">
+      <c r="A189" s="8">
         <v>46</v>
       </c>
       <c r="B189" s="2">
@@ -1980,7 +1991,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="10">
+      <c r="A190" s="8">
         <v>46.25</v>
       </c>
       <c r="B190" s="2">
@@ -1988,7 +1999,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="10">
+      <c r="A191" s="8">
         <v>46.5</v>
       </c>
       <c r="B191" s="2">
@@ -1996,7 +2007,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="10">
+      <c r="A192" s="8">
         <v>46.75</v>
       </c>
       <c r="B192" s="2">
@@ -2004,7 +2015,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="10">
+      <c r="A193" s="8">
         <v>47</v>
       </c>
       <c r="B193" s="2">
@@ -2012,7 +2023,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="10">
+      <c r="A194" s="8">
         <v>47.25</v>
       </c>
       <c r="B194" s="2">
@@ -2020,7 +2031,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="10">
+      <c r="A195" s="8">
         <v>47.5</v>
       </c>
       <c r="B195" s="2">
@@ -2028,7 +2039,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="10">
+      <c r="A196" s="8">
         <v>47.75</v>
       </c>
       <c r="B196" s="2">
@@ -2036,7 +2047,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="10">
+      <c r="A197" s="8">
         <v>48</v>
       </c>
       <c r="B197" s="2">
@@ -2044,7 +2055,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="10">
+      <c r="A198" s="8">
         <v>48.25</v>
       </c>
       <c r="B198" s="2">
@@ -2052,7 +2063,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="10">
+      <c r="A199" s="8">
         <v>48.5</v>
       </c>
       <c r="B199" s="2">
@@ -2060,7 +2071,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="10">
+      <c r="A200" s="8">
         <v>48.75</v>
       </c>
       <c r="B200" s="2">
@@ -2068,7 +2079,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="10">
+      <c r="A201" s="8">
         <v>49</v>
       </c>
       <c r="B201" s="2">
@@ -2076,7 +2087,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="10">
+      <c r="A202" s="8">
         <v>49.25</v>
       </c>
       <c r="B202" s="2">
@@ -2084,7 +2095,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="10">
+      <c r="A203" s="8">
         <v>49.5</v>
       </c>
       <c r="B203" s="2">
@@ -2092,7 +2103,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="10">
+      <c r="A204" s="8">
         <v>49.75</v>
       </c>
       <c r="B204" s="2">
@@ -2100,7 +2111,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="10">
+      <c r="A205" s="8">
         <v>50</v>
       </c>
       <c r="B205" s="2">
@@ -2108,7 +2119,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="10">
+      <c r="A206" s="8">
         <v>50.25</v>
       </c>
       <c r="B206" s="2">
@@ -2116,7 +2127,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="10">
+      <c r="A207" s="8">
         <v>50.5</v>
       </c>
       <c r="B207" s="2">
@@ -2124,7 +2135,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="10">
+      <c r="A208" s="8">
         <v>50.75</v>
       </c>
       <c r="B208" s="2">
@@ -2132,7 +2143,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="10">
+      <c r="A209" s="8">
         <v>51</v>
       </c>
       <c r="B209" s="2">
@@ -2140,7 +2151,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="10">
+      <c r="A210" s="8">
         <v>51.25</v>
       </c>
       <c r="B210" s="2">
@@ -2148,7 +2159,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="10">
+      <c r="A211" s="8">
         <v>51.5</v>
       </c>
       <c r="B211" s="2">
@@ -2156,7 +2167,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="10">
+      <c r="A212" s="8">
         <v>51.75</v>
       </c>
       <c r="B212" s="2">
@@ -2164,7 +2175,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="10">
+      <c r="A213" s="8">
         <v>52</v>
       </c>
       <c r="B213" s="2">
@@ -2172,7 +2183,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="10">
+      <c r="A214" s="8">
         <v>52.25</v>
       </c>
       <c r="B214" s="2">
@@ -2180,7 +2191,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="10">
+      <c r="A215" s="8">
         <v>52.5</v>
       </c>
       <c r="B215" s="2">
@@ -2188,7 +2199,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="10">
+      <c r="A216" s="8">
         <v>52.75</v>
       </c>
       <c r="B216" s="2">
@@ -2196,7 +2207,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="10">
+      <c r="A217" s="8">
         <v>53</v>
       </c>
       <c r="B217" s="2">
@@ -2204,7 +2215,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="10">
+      <c r="A218" s="8">
         <v>53.25</v>
       </c>
       <c r="B218" s="2">
@@ -2212,7 +2223,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="10">
+      <c r="A219" s="8">
         <v>53.5</v>
       </c>
       <c r="B219" s="2">
@@ -2220,7 +2231,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="10">
+      <c r="A220" s="8">
         <v>53.75</v>
       </c>
       <c r="B220" s="2">
@@ -2228,7 +2239,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="10">
+      <c r="A221" s="8">
         <v>54</v>
       </c>
       <c r="B221" s="2">
@@ -2236,7 +2247,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="10">
+      <c r="A222" s="8">
         <v>54.25</v>
       </c>
       <c r="B222" s="2">
@@ -2244,7 +2255,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="10">
+      <c r="A223" s="8">
         <v>54.5</v>
       </c>
       <c r="B223" s="2">
@@ -2252,7 +2263,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="10">
+      <c r="A224" s="8">
         <v>54.75</v>
       </c>
       <c r="B224" s="2">
@@ -2260,7 +2271,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="10">
+      <c r="A225" s="8">
         <v>55</v>
       </c>
       <c r="B225" s="2">
@@ -2268,7 +2279,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="10">
+      <c r="A226" s="8">
         <v>55.25</v>
       </c>
       <c r="B226" s="2">
@@ -2276,7 +2287,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="10">
+      <c r="A227" s="8">
         <v>55.5</v>
       </c>
       <c r="B227" s="2">
@@ -2284,7 +2295,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="10">
+      <c r="A228" s="8">
         <v>55.75</v>
       </c>
       <c r="B228" s="2">
@@ -2292,7 +2303,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="10">
+      <c r="A229" s="8">
         <v>56</v>
       </c>
       <c r="B229" s="2">
@@ -2300,7 +2311,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="10">
+      <c r="A230" s="8">
         <v>56.25</v>
       </c>
       <c r="B230" s="2">
@@ -2308,7 +2319,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="10">
+      <c r="A231" s="8">
         <v>56.5</v>
       </c>
       <c r="B231" s="2">
@@ -2316,7 +2327,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="10">
+      <c r="A232" s="8">
         <v>56.75</v>
       </c>
       <c r="B232" s="2">
@@ -2324,7 +2335,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="10">
+      <c r="A233" s="8">
         <v>57</v>
       </c>
       <c r="B233" s="2">
@@ -2332,7 +2343,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="10">
+      <c r="A234" s="8">
         <v>57.25</v>
       </c>
       <c r="B234" s="2">
@@ -2340,7 +2351,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="10">
+      <c r="A235" s="8">
         <v>57.5</v>
       </c>
       <c r="B235" s="2">
@@ -2348,7 +2359,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="10">
+      <c r="A236" s="8">
         <v>57.75</v>
       </c>
       <c r="B236" s="2">
@@ -2356,7 +2367,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="10">
+      <c r="A237" s="8">
         <v>58</v>
       </c>
       <c r="B237" s="2">
@@ -2364,7 +2375,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="10">
+      <c r="A238" s="8">
         <v>58.25</v>
       </c>
       <c r="B238" s="2">
@@ -2372,7 +2383,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="10">
+      <c r="A239" s="8">
         <v>58.5</v>
       </c>
       <c r="B239" s="2">
@@ -2380,7 +2391,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="10">
+      <c r="A240" s="8">
         <v>58.75</v>
       </c>
       <c r="B240" s="2">
@@ -2388,7 +2399,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="10">
+      <c r="A241" s="8">
         <v>59</v>
       </c>
       <c r="B241" s="2">
@@ -2396,7 +2407,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="10">
+      <c r="A242" s="8">
         <v>59.25</v>
       </c>
       <c r="B242" s="2">
@@ -2404,7 +2415,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="10">
+      <c r="A243" s="8">
         <v>59.5</v>
       </c>
       <c r="B243" s="2">
@@ -2412,7 +2423,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="10">
+      <c r="A244" s="8">
         <v>59.75</v>
       </c>
       <c r="B244" s="2">
@@ -2420,7 +2431,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="10">
+      <c r="A245" s="8">
         <v>60</v>
       </c>
       <c r="B245" s="2">
@@ -2428,7 +2439,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="10">
+      <c r="A246" s="8">
         <v>60.25</v>
       </c>
       <c r="B246" s="2">
@@ -2436,7 +2447,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="10">
+      <c r="A247" s="8">
         <v>60.5</v>
       </c>
       <c r="B247" s="2">
@@ -2444,7 +2455,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="10">
+      <c r="A248" s="8">
         <v>60.75</v>
       </c>
       <c r="B248" s="2">
@@ -2452,7 +2463,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="10">
+      <c r="A249" s="8">
         <v>61</v>
       </c>
       <c r="B249" s="2">
@@ -2460,7 +2471,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="10">
+      <c r="A250" s="8">
         <v>61.25</v>
       </c>
       <c r="B250" s="2">
@@ -2468,7 +2479,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="10">
+      <c r="A251" s="8">
         <v>61.5</v>
       </c>
       <c r="B251" s="2">
@@ -2476,7 +2487,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="10">
+      <c r="A252" s="8">
         <v>61.75</v>
       </c>
       <c r="B252" s="2">
@@ -2484,7 +2495,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="10">
+      <c r="A253" s="8">
         <v>62</v>
       </c>
       <c r="B253" s="2">
@@ -2492,7 +2503,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="10">
+      <c r="A254" s="8">
         <v>62.25</v>
       </c>
       <c r="B254" s="2">
@@ -2500,7 +2511,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="10">
+      <c r="A255" s="8">
         <v>62.5</v>
       </c>
       <c r="B255" s="2">
@@ -2508,7 +2519,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="10">
+      <c r="A256" s="8">
         <v>62.75</v>
       </c>
       <c r="B256" s="2">
@@ -2516,7 +2527,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="10">
+      <c r="A257" s="8">
         <v>63</v>
       </c>
       <c r="B257" s="2">
@@ -2524,7 +2535,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="10">
+      <c r="A258" s="8">
         <v>63.25</v>
       </c>
       <c r="B258" s="2">
@@ -2532,7 +2543,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="10">
+      <c r="A259" s="8">
         <v>63.5</v>
       </c>
       <c r="B259" s="2">
@@ -2540,7 +2551,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="10">
+      <c r="A260" s="8">
         <v>63.75</v>
       </c>
       <c r="B260" s="2">
@@ -2548,7 +2559,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="10">
+      <c r="A261" s="8">
         <v>64</v>
       </c>
       <c r="B261" s="2">
@@ -2556,7 +2567,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="10">
+      <c r="A262" s="8">
         <v>64.25</v>
       </c>
       <c r="B262" s="2">
@@ -2564,7 +2575,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="10">
+      <c r="A263" s="8">
         <v>64.5</v>
       </c>
       <c r="B263" s="2">
@@ -2572,7 +2583,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="10">
+      <c r="A264" s="8">
         <v>64.75</v>
       </c>
       <c r="B264" s="2">
@@ -2580,7 +2591,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="10">
+      <c r="A265" s="8">
         <v>65</v>
       </c>
       <c r="B265" s="2">
@@ -2588,7 +2599,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="10">
+      <c r="A266" s="8">
         <v>65.25</v>
       </c>
       <c r="B266" s="2">
@@ -2596,7 +2607,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="10">
+      <c r="A267" s="8">
         <v>65.5</v>
       </c>
       <c r="B267" s="2">
@@ -2604,7 +2615,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="10">
+      <c r="A268" s="8">
         <v>65.75</v>
       </c>
       <c r="B268" s="2">
@@ -2612,7 +2623,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="10">
+      <c r="A269" s="8">
         <v>66</v>
       </c>
       <c r="B269" s="2">
@@ -2620,7 +2631,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="10">
+      <c r="A270" s="8">
         <v>66.25</v>
       </c>
       <c r="B270" s="2">
@@ -2628,7 +2639,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="10">
+      <c r="A271" s="8">
         <v>66.5</v>
       </c>
       <c r="B271" s="2">
@@ -2636,7 +2647,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="10">
+      <c r="A272" s="8">
         <v>66.75</v>
       </c>
       <c r="B272" s="2">
@@ -2644,7 +2655,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="10">
+      <c r="A273" s="8">
         <v>67</v>
       </c>
       <c r="B273" s="2">
@@ -2652,7 +2663,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="10">
+      <c r="A274" s="8">
         <v>67.25</v>
       </c>
       <c r="B274" s="2">
@@ -2660,7 +2671,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="10">
+      <c r="A275" s="8">
         <v>67.5</v>
       </c>
       <c r="B275" s="2">
@@ -2668,7 +2679,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="10">
+      <c r="A276" s="8">
         <v>67.75</v>
       </c>
       <c r="B276" s="2">
@@ -2676,7 +2687,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="10">
+      <c r="A277" s="8">
         <v>68</v>
       </c>
       <c r="B277" s="2">
@@ -2684,7 +2695,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="10">
+      <c r="A278" s="8">
         <v>68.25</v>
       </c>
       <c r="B278" s="2">
@@ -2692,7 +2703,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="10">
+      <c r="A279" s="8">
         <v>68.5</v>
       </c>
       <c r="B279" s="2">
@@ -2700,7 +2711,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="10">
+      <c r="A280" s="8">
         <v>68.75</v>
       </c>
       <c r="B280" s="2">
@@ -2708,7 +2719,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="10">
+      <c r="A281" s="8">
         <v>69</v>
       </c>
       <c r="B281" s="2">
@@ -2716,7 +2727,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="10">
+      <c r="A282" s="8">
         <v>69.25</v>
       </c>
       <c r="B282" s="2">
@@ -2724,7 +2735,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="10">
+      <c r="A283" s="8">
         <v>69.5</v>
       </c>
       <c r="B283" s="2">
@@ -2732,7 +2743,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="10">
+      <c r="A284" s="8">
         <v>69.75</v>
       </c>
       <c r="B284" s="2">
@@ -2740,7 +2751,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="10">
+      <c r="A285" s="8">
         <v>70</v>
       </c>
       <c r="B285" s="2">
@@ -2748,7 +2759,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="10">
+      <c r="A286" s="8">
         <v>70.25</v>
       </c>
       <c r="B286" s="2">
@@ -2756,7 +2767,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="10">
+      <c r="A287" s="8">
         <v>70.5</v>
       </c>
       <c r="B287" s="2">
@@ -2764,7 +2775,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="10">
+      <c r="A288" s="8">
         <v>70.75</v>
       </c>
       <c r="B288" s="2">
@@ -2772,7 +2783,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="10">
+      <c r="A289" s="8">
         <v>71</v>
       </c>
       <c r="B289" s="2">
@@ -2780,7 +2791,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="10">
+      <c r="A290" s="8">
         <v>71.25</v>
       </c>
       <c r="B290" s="2">
@@ -2788,7 +2799,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="10">
+      <c r="A291" s="8">
         <v>71.5</v>
       </c>
       <c r="B291" s="2">
@@ -2796,7 +2807,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="10">
+      <c r="A292" s="8">
         <v>71.75</v>
       </c>
       <c r="B292" s="2">
@@ -2804,7 +2815,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="10">
+      <c r="A293" s="8">
         <v>72</v>
       </c>
       <c r="B293" s="2">
@@ -2812,7 +2823,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="10">
+      <c r="A294" s="8">
         <v>72.25</v>
       </c>
       <c r="B294" s="2">
@@ -2820,7 +2831,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="10">
+      <c r="A295" s="8">
         <v>72.5</v>
       </c>
       <c r="B295" s="2">
@@ -2828,7 +2839,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="10">
+      <c r="A296" s="8">
         <v>72.75</v>
       </c>
       <c r="B296" s="2">
@@ -2836,7 +2847,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="10">
+      <c r="A297" s="8">
         <v>73</v>
       </c>
       <c r="B297" s="2">
@@ -2844,7 +2855,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="10">
+      <c r="A298" s="8">
         <v>73.25</v>
       </c>
       <c r="B298" s="2">
@@ -2852,7 +2863,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="10">
+      <c r="A299" s="8">
         <v>73.5</v>
       </c>
       <c r="B299" s="2">
@@ -2860,7 +2871,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="10">
+      <c r="A300" s="8">
         <v>73.75</v>
       </c>
       <c r="B300" s="2">
@@ -2868,7 +2879,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="10">
+      <c r="A301" s="8">
         <v>74</v>
       </c>
       <c r="B301" s="2">
@@ -2876,7 +2887,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="10">
+      <c r="A302" s="8">
         <v>74.25</v>
       </c>
       <c r="B302" s="2">
@@ -2884,7 +2895,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="10">
+      <c r="A303" s="8">
         <v>74.5</v>
       </c>
       <c r="B303" s="2">
@@ -2892,7 +2903,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="10">
+      <c r="A304" s="8">
         <v>74.75</v>
       </c>
       <c r="B304" s="2">
@@ -2900,7 +2911,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="10">
+      <c r="A305" s="8">
         <v>75</v>
       </c>
       <c r="B305" s="2">
@@ -2908,7 +2919,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="10">
+      <c r="A306" s="8">
         <v>75.25</v>
       </c>
       <c r="B306" s="2">
@@ -2916,7 +2927,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="10">
+      <c r="A307" s="8">
         <v>75.5</v>
       </c>
       <c r="B307" s="2">
@@ -2924,7 +2935,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="10">
+      <c r="A308" s="8">
         <v>75.75</v>
       </c>
       <c r="B308" s="2">
@@ -2932,7 +2943,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="10">
+      <c r="A309" s="8">
         <v>76</v>
       </c>
       <c r="B309" s="2">
@@ -2940,7 +2951,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="10">
+      <c r="A310" s="8">
         <v>76.25</v>
       </c>
       <c r="B310" s="2">
@@ -2948,7 +2959,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="10">
+      <c r="A311" s="8">
         <v>76.5</v>
       </c>
       <c r="B311" s="2">
@@ -2956,7 +2967,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="10">
+      <c r="A312" s="8">
         <v>76.75</v>
       </c>
       <c r="B312" s="2">
@@ -2964,7 +2975,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="10">
+      <c r="A313" s="8">
         <v>77</v>
       </c>
       <c r="B313" s="2">
@@ -2972,7 +2983,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="10">
+      <c r="A314" s="8">
         <v>77.25</v>
       </c>
       <c r="B314" s="2">
@@ -2980,7 +2991,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="10">
+      <c r="A315" s="8">
         <v>77.5</v>
       </c>
       <c r="B315" s="2">
@@ -2988,7 +2999,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="10">
+      <c r="A316" s="8">
         <v>77.75</v>
       </c>
       <c r="B316" s="2">
@@ -2996,7 +3007,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="10">
+      <c r="A317" s="8">
         <v>78</v>
       </c>
       <c r="B317" s="2">
@@ -3004,7 +3015,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="10">
+      <c r="A318" s="8">
         <v>78.25</v>
       </c>
       <c r="B318" s="2">
@@ -3012,7 +3023,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="10">
+      <c r="A319" s="8">
         <v>78.5</v>
       </c>
       <c r="B319" s="2">
@@ -3020,7 +3031,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="10">
+      <c r="A320" s="8">
         <v>78.75</v>
       </c>
       <c r="B320" s="2">
@@ -3028,7 +3039,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="10">
+      <c r="A321" s="8">
         <v>79</v>
       </c>
       <c r="B321" s="2">
@@ -3036,7 +3047,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="10">
+      <c r="A322" s="8">
         <v>79.25</v>
       </c>
       <c r="B322" s="2">
@@ -3044,7 +3055,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="10">
+      <c r="A323" s="8">
         <v>79.5</v>
       </c>
       <c r="B323" s="2">
@@ -3052,7 +3063,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="10">
+      <c r="A324" s="8">
         <v>79.75</v>
       </c>
       <c r="B324" s="2">
@@ -3060,7 +3071,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="10">
+      <c r="A325" s="8">
         <v>80</v>
       </c>
       <c r="B325" s="2">
@@ -3068,7 +3079,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="10">
+      <c r="A326" s="8">
         <v>80.25</v>
       </c>
       <c r="B326" s="2">
@@ -3076,7 +3087,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="10">
+      <c r="A327" s="8">
         <v>80.5</v>
       </c>
       <c r="B327" s="2">
@@ -3084,7 +3095,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="10">
+      <c r="A328" s="8">
         <v>80.75</v>
       </c>
       <c r="B328" s="2">
@@ -3092,7 +3103,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="10">
+      <c r="A329" s="8">
         <v>81</v>
       </c>
       <c r="B329" s="2">
@@ -3100,7 +3111,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="10">
+      <c r="A330" s="8">
         <v>81.25</v>
       </c>
       <c r="B330" s="2">
@@ -3108,7 +3119,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="10">
+      <c r="A331" s="8">
         <v>81.5</v>
       </c>
       <c r="B331" s="2">
@@ -3116,7 +3127,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="10">
+      <c r="A332" s="8">
         <v>81.75</v>
       </c>
       <c r="B332" s="2">
@@ -3124,7 +3135,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="10">
+      <c r="A333" s="8">
         <v>82</v>
       </c>
       <c r="B333" s="2">
@@ -3132,7 +3143,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="10">
+      <c r="A334" s="8">
         <v>82.25</v>
       </c>
       <c r="B334" s="2">
@@ -3140,7 +3151,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="10">
+      <c r="A335" s="8">
         <v>82.5</v>
       </c>
       <c r="B335" s="2">
@@ -3148,7 +3159,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="10">
+      <c r="A336" s="8">
         <v>82.75</v>
       </c>
       <c r="B336" s="2">
@@ -3156,7 +3167,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="10">
+      <c r="A337" s="8">
         <v>83</v>
       </c>
       <c r="B337" s="2">
@@ -3164,7 +3175,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="10">
+      <c r="A338" s="8">
         <v>83.25</v>
       </c>
       <c r="B338" s="2">
@@ -3172,7 +3183,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="10">
+      <c r="A339" s="8">
         <v>83.5</v>
       </c>
       <c r="B339" s="2">
@@ -3180,7 +3191,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="10">
+      <c r="A340" s="8">
         <v>83.75</v>
       </c>
       <c r="B340" s="2">
@@ -3188,7 +3199,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="10">
+      <c r="A341" s="8">
         <v>84</v>
       </c>
       <c r="B341" s="2">
@@ -3196,7 +3207,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="10">
+      <c r="A342" s="8">
         <v>84.25</v>
       </c>
       <c r="B342" s="2">
@@ -3204,7 +3215,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="10">
+      <c r="A343" s="8">
         <v>84.5</v>
       </c>
       <c r="B343" s="2">
@@ -3212,7 +3223,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="10">
+      <c r="A344" s="8">
         <v>84.75</v>
       </c>
       <c r="B344" s="2">
@@ -3220,7 +3231,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="10">
+      <c r="A345" s="8">
         <v>85</v>
       </c>
       <c r="B345" s="2">
@@ -3228,7 +3239,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="10">
+      <c r="A346" s="8">
         <v>85.25</v>
       </c>
       <c r="B346" s="2">
@@ -3236,7 +3247,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="10">
+      <c r="A347" s="8">
         <v>85.5</v>
       </c>
       <c r="B347" s="2">
@@ -3244,7 +3255,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="10">
+      <c r="A348" s="8">
         <v>85.75</v>
       </c>
       <c r="B348" s="2">
@@ -3252,7 +3263,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="10">
+      <c r="A349" s="8">
         <v>86</v>
       </c>
       <c r="B349" s="2">
@@ -3260,7 +3271,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="10">
+      <c r="A350" s="8">
         <v>86.25</v>
       </c>
       <c r="B350" s="2">
@@ -3268,7 +3279,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="10">
+      <c r="A351" s="8">
         <v>86.5</v>
       </c>
       <c r="B351" s="2">
@@ -3276,7 +3287,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="10">
+      <c r="A352" s="8">
         <v>86.75</v>
       </c>
       <c r="B352" s="2">
@@ -3284,7 +3295,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="10">
+      <c r="A353" s="8">
         <v>87</v>
       </c>
       <c r="B353" s="2">
@@ -3292,7 +3303,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="10">
+      <c r="A354" s="8">
         <v>87.25</v>
       </c>
       <c r="B354" s="2">
@@ -3300,7 +3311,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="10">
+      <c r="A355" s="8">
         <v>87.5</v>
       </c>
       <c r="B355" s="2">
@@ -3308,7 +3319,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="10">
+      <c r="A356" s="8">
         <v>87.75</v>
       </c>
       <c r="B356" s="2">
@@ -3316,7 +3327,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="10">
+      <c r="A357" s="8">
         <v>88</v>
       </c>
       <c r="B357" s="2">
@@ -3324,7 +3335,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="10">
+      <c r="A358" s="8">
         <v>88.25</v>
       </c>
       <c r="B358" s="2">
@@ -3332,7 +3343,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="10">
+      <c r="A359" s="8">
         <v>88.5</v>
       </c>
       <c r="B359" s="2">
@@ -3340,7 +3351,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="10">
+      <c r="A360" s="8">
         <v>88.75</v>
       </c>
       <c r="B360" s="2">
@@ -3348,7 +3359,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="10">
+      <c r="A361" s="8">
         <v>89</v>
       </c>
       <c r="B361" s="2">
@@ -3356,7 +3367,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="10">
+      <c r="A362" s="8">
         <v>89.25</v>
       </c>
       <c r="B362" s="2">
@@ -3364,7 +3375,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="10">
+      <c r="A363" s="8">
         <v>89.5</v>
       </c>
       <c r="B363" s="2">
@@ -3372,7 +3383,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="10">
+      <c r="A364" s="8">
         <v>89.75</v>
       </c>
       <c r="B364" s="2">
@@ -3380,7 +3391,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="10">
+      <c r="A365" s="8">
         <v>90</v>
       </c>
       <c r="B365" s="2">
@@ -3388,7 +3399,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="10">
+      <c r="A366" s="8">
         <v>90.25</v>
       </c>
       <c r="B366" s="2">
@@ -3396,7 +3407,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="10">
+      <c r="A367" s="8">
         <v>90.5</v>
       </c>
       <c r="B367" s="2">
@@ -3404,7 +3415,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="10">
+      <c r="A368" s="8">
         <v>90.75</v>
       </c>
       <c r="B368" s="2">
@@ -3412,7 +3423,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="10">
+      <c r="A369" s="8">
         <v>91</v>
       </c>
       <c r="B369" s="2">
@@ -3420,7 +3431,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="10">
+      <c r="A370" s="8">
         <v>91.25</v>
       </c>
       <c r="B370" s="2">
@@ -3428,7 +3439,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="10">
+      <c r="A371" s="8">
         <v>91.5</v>
       </c>
       <c r="B371" s="2">
@@ -3436,7 +3447,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="10">
+      <c r="A372" s="8">
         <v>91.75</v>
       </c>
       <c r="B372" s="2">
@@ -3444,7 +3455,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="10">
+      <c r="A373" s="8">
         <v>92</v>
       </c>
       <c r="B373" s="2">
@@ -3452,7 +3463,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="10">
+      <c r="A374" s="8">
         <v>92.25</v>
       </c>
       <c r="B374" s="2">
@@ -3460,7 +3471,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="10">
+      <c r="A375" s="8">
         <v>92.5</v>
       </c>
       <c r="B375" s="2">
@@ -3468,7 +3479,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="10">
+      <c r="A376" s="8">
         <v>92.75</v>
       </c>
       <c r="B376" s="2">
@@ -3476,7 +3487,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="10">
+      <c r="A377" s="8">
         <v>93</v>
       </c>
       <c r="B377" s="2">
@@ -3484,7 +3495,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="10">
+      <c r="A378" s="8">
         <v>93.25</v>
       </c>
       <c r="B378" s="2">
@@ -3492,7 +3503,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="10">
+      <c r="A379" s="8">
         <v>93.5</v>
       </c>
       <c r="B379" s="2">
@@ -3500,7 +3511,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="10">
+      <c r="A380" s="8">
         <v>93.75</v>
       </c>
       <c r="B380" s="2">
@@ -3508,7 +3519,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="10">
+      <c r="A381" s="8">
         <v>94</v>
       </c>
       <c r="B381" s="2">
@@ -3516,7 +3527,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="10">
+      <c r="A382" s="8">
         <v>94.25</v>
       </c>
       <c r="B382" s="2">
@@ -3524,7 +3535,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="10">
+      <c r="A383" s="8">
         <v>94.5</v>
       </c>
       <c r="B383" s="2">
@@ -3532,7 +3543,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="10">
+      <c r="A384" s="8">
         <v>94.75</v>
       </c>
       <c r="B384" s="2">
@@ -3540,7 +3551,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="10">
+      <c r="A385" s="8">
         <v>95</v>
       </c>
       <c r="B385" s="2">
@@ -3548,7 +3559,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="10">
+      <c r="A386" s="8">
         <v>95.25</v>
       </c>
       <c r="B386" s="2">
@@ -3556,7 +3567,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="10">
+      <c r="A387" s="8">
         <v>95.5</v>
       </c>
       <c r="B387" s="2">
@@ -3564,7 +3575,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="10">
+      <c r="A388" s="8">
         <v>95.75</v>
       </c>
       <c r="B388" s="2">
@@ -3572,7 +3583,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="10">
+      <c r="A389" s="8">
         <v>96</v>
       </c>
       <c r="B389" s="2">
@@ -3580,7 +3591,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="10">
+      <c r="A390" s="8">
         <v>96.25</v>
       </c>
       <c r="B390" s="2">
@@ -3588,7 +3599,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="10">
+      <c r="A391" s="8">
         <v>96.5</v>
       </c>
       <c r="B391" s="2">
@@ -3596,7 +3607,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="10">
+      <c r="A392" s="8">
         <v>96.75</v>
       </c>
       <c r="B392" s="2">
@@ -3604,7 +3615,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="10">
+      <c r="A393" s="8">
         <v>97</v>
       </c>
       <c r="B393" s="2">
@@ -3612,7 +3623,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="10">
+      <c r="A394" s="8">
         <v>97.25</v>
       </c>
       <c r="B394" s="2">
@@ -3620,7 +3631,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="10">
+      <c r="A395" s="8">
         <v>97.5</v>
       </c>
       <c r="B395" s="2">
@@ -3628,7 +3639,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="10">
+      <c r="A396" s="8">
         <v>97.75</v>
       </c>
       <c r="B396" s="2">
@@ -3636,7 +3647,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="10">
+      <c r="A397" s="8">
         <v>98</v>
       </c>
       <c r="B397" s="2">
@@ -3644,7 +3655,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="10">
+      <c r="A398" s="8">
         <v>98.25</v>
       </c>
       <c r="B398" s="2">
@@ -3652,7 +3663,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="10">
+      <c r="A399" s="8">
         <v>98.5</v>
       </c>
       <c r="B399" s="2">
@@ -3660,7 +3671,7 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="10">
+      <c r="A400" s="8">
         <v>98.75</v>
       </c>
       <c r="B400" s="2">
@@ -3668,7 +3679,7 @@
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="10">
+      <c r="A401" s="8">
         <v>99</v>
       </c>
       <c r="B401" s="2">
@@ -3676,7 +3687,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="10">
+      <c r="A402" s="8">
         <v>99.25</v>
       </c>
       <c r="B402" s="2">
@@ -3684,7 +3695,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="10">
+      <c r="A403" s="8">
         <v>99.5</v>
       </c>
       <c r="B403" s="2">
@@ -3692,7 +3703,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="10">
+      <c r="A404" s="8">
         <v>99.75</v>
       </c>
       <c r="B404" s="2">
@@ -3700,7 +3711,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="10">
+      <c r="A405" s="8">
         <v>100</v>
       </c>
       <c r="B405" s="2">
@@ -3708,7 +3719,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="10">
+      <c r="A406" s="8">
         <v>100.25</v>
       </c>
       <c r="B406" s="2">
@@ -3716,7 +3727,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="10">
+      <c r="A407" s="8">
         <v>100.5</v>
       </c>
       <c r="B407" s="2">
@@ -3724,7 +3735,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="10">
+      <c r="A408" s="8">
         <v>100.75</v>
       </c>
       <c r="B408" s="2">
@@ -3732,7 +3743,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="10">
+      <c r="A409" s="8">
         <v>101</v>
       </c>
       <c r="B409" s="2">
@@ -3740,7 +3751,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="10">
+      <c r="A410" s="8">
         <v>101.25</v>
       </c>
       <c r="B410" s="2">
@@ -3748,7 +3759,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="10">
+      <c r="A411" s="8">
         <v>101.5</v>
       </c>
       <c r="B411" s="2">
@@ -3756,7 +3767,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="10">
+      <c r="A412" s="8">
         <v>101.75</v>
       </c>
       <c r="B412" s="2">
@@ -3764,7 +3775,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="10">
+      <c r="A413" s="8">
         <v>102</v>
       </c>
       <c r="B413" s="2">
@@ -3772,7 +3783,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="10">
+      <c r="A414" s="8">
         <v>102.25</v>
       </c>
       <c r="B414" s="2">
@@ -3780,7 +3791,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="10">
+      <c r="A415" s="8">
         <v>102.5</v>
       </c>
       <c r="B415" s="2">
@@ -3788,7 +3799,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="10">
+      <c r="A416" s="8">
         <v>102.75</v>
       </c>
       <c r="B416" s="2">
@@ -3796,7 +3807,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="10">
+      <c r="A417" s="8">
         <v>103</v>
       </c>
       <c r="B417" s="2">
@@ -3804,7 +3815,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="10">
+      <c r="A418" s="8">
         <v>103.25</v>
       </c>
       <c r="B418" s="2">
@@ -3812,7 +3823,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="10">
+      <c r="A419" s="8">
         <v>103.5</v>
       </c>
       <c r="B419" s="2">
@@ -3820,7 +3831,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="10">
+      <c r="A420" s="8">
         <v>103.75</v>
       </c>
       <c r="B420" s="2">
@@ -3828,7 +3839,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="10">
+      <c r="A421" s="8">
         <v>104</v>
       </c>
       <c r="B421" s="2">
@@ -3836,7 +3847,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="10">
+      <c r="A422" s="8">
         <v>104.25</v>
       </c>
       <c r="B422" s="2">
@@ -3844,7 +3855,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="10">
+      <c r="A423" s="8">
         <v>104.5</v>
       </c>
       <c r="B423" s="2">
@@ -3852,7 +3863,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="10">
+      <c r="A424" s="8">
         <v>104.75</v>
       </c>
       <c r="B424" s="2">
@@ -3860,7 +3871,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="10">
+      <c r="A425" s="8">
         <v>105</v>
       </c>
       <c r="B425" s="2">
@@ -3868,7 +3879,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="10">
+      <c r="A426" s="8">
         <v>105.25</v>
       </c>
       <c r="B426" s="2">
@@ -3876,7 +3887,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="10">
+      <c r="A427" s="8">
         <v>105.5</v>
       </c>
       <c r="B427" s="2">
@@ -3884,7 +3895,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="10">
+      <c r="A428" s="8">
         <v>105.75</v>
       </c>
       <c r="B428" s="2">
@@ -3892,7 +3903,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="10">
+      <c r="A429" s="8">
         <v>106</v>
       </c>
       <c r="B429" s="2">
@@ -3900,7 +3911,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="10">
+      <c r="A430" s="8">
         <v>106.25</v>
       </c>
       <c r="B430" s="2">
@@ -3908,7 +3919,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="10">
+      <c r="A431" s="8">
         <v>106.5</v>
       </c>
       <c r="B431" s="2">
@@ -3916,7 +3927,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="10">
+      <c r="A432" s="8">
         <v>106.75</v>
       </c>
       <c r="B432" s="2">
@@ -3924,7 +3935,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="10">
+      <c r="A433" s="8">
         <v>107</v>
       </c>
       <c r="B433" s="2">
@@ -3932,7 +3943,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="10">
+      <c r="A434" s="8">
         <v>107.25</v>
       </c>
       <c r="B434" s="2">
@@ -3940,7 +3951,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="10">
+      <c r="A435" s="8">
         <v>107.5</v>
       </c>
       <c r="B435" s="2">
@@ -3948,7 +3959,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="10">
+      <c r="A436" s="8">
         <v>107.75</v>
       </c>
       <c r="B436" s="2">
@@ -3956,7 +3967,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="10">
+      <c r="A437" s="8">
         <v>108</v>
       </c>
       <c r="B437" s="2">
@@ -3964,7 +3975,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="10">
+      <c r="A438" s="8">
         <v>108.25</v>
       </c>
       <c r="B438" s="2">
@@ -3972,7 +3983,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="10">
+      <c r="A439" s="8">
         <v>108.5</v>
       </c>
       <c r="B439" s="2">
@@ -3980,7 +3991,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="10">
+      <c r="A440" s="8">
         <v>108.75</v>
       </c>
       <c r="B440" s="2">
@@ -3988,7 +3999,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="10">
+      <c r="A441" s="8">
         <v>109</v>
       </c>
       <c r="B441" s="2">
@@ -3996,7 +4007,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="10">
+      <c r="A442" s="8">
         <v>109.25</v>
       </c>
       <c r="B442" s="2">
@@ -4004,7 +4015,7 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="10">
+      <c r="A443" s="8">
         <v>109.5</v>
       </c>
       <c r="B443" s="2">
@@ -4012,7 +4023,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="10">
+      <c r="A444" s="8">
         <v>109.75</v>
       </c>
       <c r="B444" s="2">
@@ -4020,7 +4031,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="10">
+      <c r="A445" s="8">
         <v>110</v>
       </c>
       <c r="B445" s="2">
@@ -4028,7 +4039,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="10">
+      <c r="A446" s="8">
         <v>110.25</v>
       </c>
       <c r="B446" s="2">
@@ -4036,7 +4047,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="10">
+      <c r="A447" s="8">
         <v>110.5</v>
       </c>
       <c r="B447" s="2">
@@ -4044,7 +4055,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="10">
+      <c r="A448" s="8">
         <v>110.75</v>
       </c>
       <c r="B448" s="2">
@@ -4052,7 +4063,7 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="10">
+      <c r="A449" s="8">
         <v>111</v>
       </c>
       <c r="B449" s="2">
@@ -4060,7 +4071,7 @@
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="10">
+      <c r="A450" s="8">
         <v>111.25</v>
       </c>
       <c r="B450" s="2">
@@ -4068,7 +4079,7 @@
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="10">
+      <c r="A451" s="8">
         <v>111.5</v>
       </c>
       <c r="B451" s="2">
@@ -4076,7 +4087,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="10">
+      <c r="A452" s="8">
         <v>111.75</v>
       </c>
       <c r="B452" s="2">
@@ -4084,7 +4095,7 @@
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="10">
+      <c r="A453" s="8">
         <v>112</v>
       </c>
       <c r="B453" s="2">
@@ -4092,7 +4103,7 @@
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="10">
+      <c r="A454" s="8">
         <v>112.25</v>
       </c>
       <c r="B454" s="2">
@@ -4100,7 +4111,7 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="10">
+      <c r="A455" s="8">
         <v>112.5</v>
       </c>
       <c r="B455" s="2">
@@ -4108,7 +4119,7 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="10">
+      <c r="A456" s="8">
         <v>112.75</v>
       </c>
       <c r="B456" s="2">
@@ -4116,7 +4127,7 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="10">
+      <c r="A457" s="8">
         <v>113</v>
       </c>
       <c r="B457" s="2">
@@ -4124,7 +4135,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="10">
+      <c r="A458" s="8">
         <v>113.25</v>
       </c>
       <c r="B458" s="2">
@@ -4132,7 +4143,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="10">
+      <c r="A459" s="8">
         <v>113.5</v>
       </c>
       <c r="B459" s="2">
@@ -4140,7 +4151,7 @@
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="10">
+      <c r="A460" s="8">
         <v>113.75</v>
       </c>
       <c r="B460" s="2">
@@ -4148,7 +4159,7 @@
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="10">
+      <c r="A461" s="8">
         <v>114</v>
       </c>
       <c r="B461" s="2">
@@ -4156,7 +4167,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="10">
+      <c r="A462" s="8">
         <v>114.25</v>
       </c>
       <c r="B462" s="2">
@@ -4164,7 +4175,7 @@
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="10">
+      <c r="A463" s="8">
         <v>114.5</v>
       </c>
       <c r="B463" s="2">
@@ -4172,7 +4183,7 @@
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="10">
+      <c r="A464" s="8">
         <v>114.75</v>
       </c>
       <c r="B464" s="2">
@@ -4180,7 +4191,7 @@
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="10">
+      <c r="A465" s="8">
         <v>115</v>
       </c>
       <c r="B465" s="2">
@@ -4188,7 +4199,7 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="10">
+      <c r="A466" s="8">
         <v>115.25</v>
       </c>
       <c r="B466" s="2">
@@ -4196,7 +4207,7 @@
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="10">
+      <c r="A467" s="8">
         <v>115.5</v>
       </c>
       <c r="B467" s="2">
@@ -4204,7 +4215,7 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="10">
+      <c r="A468" s="8">
         <v>115.75</v>
       </c>
       <c r="B468" s="2">
@@ -4212,7 +4223,7 @@
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="10">
+      <c r="A469" s="8">
         <v>116</v>
       </c>
       <c r="B469" s="2">
@@ -4220,7 +4231,7 @@
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="10">
+      <c r="A470" s="8">
         <v>116.25</v>
       </c>
       <c r="B470" s="2">
@@ -4228,7 +4239,7 @@
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="10">
+      <c r="A471" s="8">
         <v>116.5</v>
       </c>
       <c r="B471" s="2">
@@ -4236,7 +4247,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="10">
+      <c r="A472" s="8">
         <v>116.75</v>
       </c>
       <c r="B472" s="2">
@@ -4244,7 +4255,7 @@
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="10">
+      <c r="A473" s="8">
         <v>117</v>
       </c>
       <c r="B473" s="2">
@@ -4252,7 +4263,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="10">
+      <c r="A474" s="8">
         <v>117.25</v>
       </c>
       <c r="B474" s="2">
@@ -4260,7 +4271,7 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="10">
+      <c r="A475" s="8">
         <v>117.5</v>
       </c>
       <c r="B475" s="2">
@@ -4268,7 +4279,7 @@
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="10">
+      <c r="A476" s="8">
         <v>117.75</v>
       </c>
       <c r="B476" s="2">
@@ -4276,7 +4287,7 @@
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="10">
+      <c r="A477" s="8">
         <v>118</v>
       </c>
       <c r="B477" s="2">
@@ -4284,7 +4295,7 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="10">
+      <c r="A478" s="8">
         <v>118.25</v>
       </c>
       <c r="B478" s="2">
@@ -4292,7 +4303,7 @@
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="10">
+      <c r="A479" s="8">
         <v>118.5</v>
       </c>
       <c r="B479" s="2">
@@ -4300,7 +4311,7 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="10">
+      <c r="A480" s="8">
         <v>118.75</v>
       </c>
       <c r="B480" s="2">
@@ -4308,7 +4319,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="10">
+      <c r="A481" s="8">
         <v>119</v>
       </c>
       <c r="B481" s="2">
@@ -4316,7 +4327,7 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="10">
+      <c r="A482" s="8">
         <v>119.25</v>
       </c>
       <c r="B482" s="2">
@@ -4324,7 +4335,7 @@
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="10">
+      <c r="A483" s="8">
         <v>119.5</v>
       </c>
       <c r="B483" s="2">
@@ -4332,7 +4343,7 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="10">
+      <c r="A484" s="8">
         <v>119.75</v>
       </c>
       <c r="B484" s="2">
@@ -4340,7 +4351,7 @@
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="10">
+      <c r="A485" s="8">
         <v>120</v>
       </c>
       <c r="B485" s="2">
@@ -4348,7 +4359,7 @@
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="10">
+      <c r="A486" s="8">
         <v>120.125</v>
       </c>
       <c r="B486" s="2">
@@ -4356,7 +4367,7 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="10">
+      <c r="A487" s="8">
         <v>120.25</v>
       </c>
       <c r="B487" s="2">
@@ -4364,7 +4375,7 @@
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="10">
+      <c r="A488" s="8">
         <v>120.5</v>
       </c>
       <c r="B488" s="2">
@@ -4372,7 +4383,7 @@
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="10">
+      <c r="A489" s="8">
         <v>120.75</v>
       </c>
       <c r="B489" s="2">
@@ -4380,7 +4391,7 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="10">
+      <c r="A490" s="8">
         <v>121</v>
       </c>
       <c r="B490" s="2">
@@ -4388,7 +4399,7 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="10">
+      <c r="A491" s="8">
         <v>121.25</v>
       </c>
       <c r="B491" s="2">
@@ -4396,7 +4407,7 @@
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="10">
+      <c r="A492" s="8">
         <v>121.5</v>
       </c>
       <c r="B492" s="2">
@@ -4404,7 +4415,7 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" s="10">
+      <c r="A493" s="8">
         <v>121.75</v>
       </c>
       <c r="B493" s="2">
@@ -4412,7 +4423,7 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="10">
+      <c r="A494" s="8">
         <v>122</v>
       </c>
       <c r="B494" s="2">
@@ -4420,7 +4431,7 @@
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="10">
+      <c r="A495" s="8">
         <v>122.25</v>
       </c>
       <c r="B495" s="2">
@@ -4428,7 +4439,7 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="10">
+      <c r="A496" s="8">
         <v>122.5</v>
       </c>
       <c r="B496" s="2">
@@ -4436,7 +4447,7 @@
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="10">
+      <c r="A497" s="8">
         <v>122.75</v>
       </c>
       <c r="B497" s="2">
@@ -4444,7 +4455,7 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" s="10">
+      <c r="A498" s="8">
         <v>123</v>
       </c>
       <c r="B498" s="2">
@@ -4452,7 +4463,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" s="10">
+      <c r="A499" s="8">
         <v>123.25</v>
       </c>
       <c r="B499" s="2">
@@ -4460,7 +4471,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="10">
+      <c r="A500" s="8">
         <v>123.5</v>
       </c>
       <c r="B500" s="2">
@@ -4468,7 +4479,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="10">
+      <c r="A501" s="8">
         <v>123.75</v>
       </c>
       <c r="B501" s="2">
@@ -4476,7 +4487,7 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="10">
+      <c r="A502" s="8">
         <v>124</v>
       </c>
       <c r="B502" s="2">
@@ -4484,7 +4495,7 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" s="10">
+      <c r="A503" s="8">
         <v>124.25</v>
       </c>
       <c r="B503" s="2">
@@ -4492,7 +4503,7 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" s="10">
+      <c r="A504" s="8">
         <v>124.5</v>
       </c>
       <c r="B504" s="2">
@@ -4500,7 +4511,7 @@
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="10">
+      <c r="A505" s="8">
         <v>124.75</v>
       </c>
       <c r="B505" s="2">
@@ -4508,7 +4519,7 @@
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="10">
+      <c r="A506" s="8">
         <v>125</v>
       </c>
       <c r="B506" s="2">
@@ -4516,7 +4527,7 @@
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="10">
+      <c r="A507" s="8">
         <v>125.25</v>
       </c>
       <c r="B507" s="2">
@@ -4524,7 +4535,7 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="10">
+      <c r="A508" s="8">
         <v>125.5</v>
       </c>
       <c r="B508" s="2">
@@ -4532,7 +4543,7 @@
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="10">
+      <c r="A509" s="8">
         <v>125.75</v>
       </c>
       <c r="B509" s="2">
@@ -4540,7 +4551,7 @@
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" s="10">
+      <c r="A510" s="8">
         <v>126</v>
       </c>
       <c r="B510" s="2">
@@ -4548,7 +4559,7 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" s="10">
+      <c r="A511" s="8">
         <v>126.25</v>
       </c>
       <c r="B511" s="2">
@@ -4556,7 +4567,7 @@
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="10">
+      <c r="A512" s="8">
         <v>126.5</v>
       </c>
       <c r="B512" s="2">
@@ -4564,7 +4575,7 @@
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="10">
+      <c r="A513" s="8">
         <v>126.75</v>
       </c>
       <c r="B513" s="2">
@@ -4572,7 +4583,7 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="10">
+      <c r="A514" s="8">
         <v>127</v>
       </c>
       <c r="B514" s="2">
@@ -4580,7 +4591,7 @@
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="10">
+      <c r="A515" s="8">
         <v>127.25</v>
       </c>
       <c r="B515" s="2">
@@ -4588,7 +4599,7 @@
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="10">
+      <c r="A516" s="8">
         <v>127.5</v>
       </c>
       <c r="B516" s="2">
@@ -4596,7 +4607,7 @@
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="10">
+      <c r="A517" s="8">
         <v>127.75</v>
       </c>
       <c r="B517" s="2">
@@ -4604,7 +4615,7 @@
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="10">
+      <c r="A518" s="8">
         <v>128</v>
       </c>
       <c r="B518" s="2">
@@ -4612,7 +4623,7 @@
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="10">
+      <c r="A519" s="8">
         <v>128.25</v>
       </c>
       <c r="B519" s="2">
@@ -4620,7 +4631,7 @@
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" s="10">
+      <c r="A520" s="8">
         <v>128.5</v>
       </c>
       <c r="B520" s="2">
@@ -4628,7 +4639,7 @@
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" s="10">
+      <c r="A521" s="8">
         <v>128.75</v>
       </c>
       <c r="B521" s="2">
@@ -4636,7 +4647,7 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="10">
+      <c r="A522" s="8">
         <v>129</v>
       </c>
       <c r="B522" s="2">
@@ -4644,7 +4655,7 @@
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" s="10">
+      <c r="A523" s="8">
         <v>129.25</v>
       </c>
       <c r="B523" s="2">
@@ -4652,7 +4663,7 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" s="10">
+      <c r="A524" s="8">
         <v>129.5</v>
       </c>
       <c r="B524" s="2">
@@ -4660,7 +4671,7 @@
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A525" s="10">
+      <c r="A525" s="8">
         <v>129.75</v>
       </c>
       <c r="B525" s="2">
@@ -4668,7 +4679,7 @@
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A526" s="10">
+      <c r="A526" s="8">
         <v>130</v>
       </c>
       <c r="B526" s="2">
@@ -4676,7 +4687,7 @@
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A527" s="10">
+      <c r="A527" s="8">
         <v>130.25</v>
       </c>
       <c r="B527" s="2">
@@ -4684,7 +4695,7 @@
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A528" s="10">
+      <c r="A528" s="8">
         <v>130.5</v>
       </c>
       <c r="B528" s="2">
@@ -4692,7 +4703,7 @@
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A529" s="10">
+      <c r="A529" s="8">
         <v>130.75</v>
       </c>
       <c r="B529" s="2">
@@ -4700,7 +4711,7 @@
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A530" s="10">
+      <c r="A530" s="8">
         <v>131</v>
       </c>
       <c r="B530" s="2">
@@ -4708,7 +4719,7 @@
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A531" s="10">
+      <c r="A531" s="8">
         <v>131.25</v>
       </c>
       <c r="B531" s="2">
@@ -4716,7 +4727,7 @@
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A532" s="10">
+      <c r="A532" s="8">
         <v>131.5</v>
       </c>
       <c r="B532" s="2">
@@ -4724,7 +4735,7 @@
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A533" s="10">
+      <c r="A533" s="8">
         <v>131.75</v>
       </c>
       <c r="B533" s="2">
@@ -4732,7 +4743,7 @@
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A534" s="10">
+      <c r="A534" s="8">
         <v>132</v>
       </c>
       <c r="B534" s="2">
@@ -4740,7 +4751,7 @@
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A535" s="10">
+      <c r="A535" s="8">
         <v>132.25</v>
       </c>
       <c r="B535" s="2">
@@ -4748,7 +4759,7 @@
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A536" s="10">
+      <c r="A536" s="8">
         <v>132.5</v>
       </c>
       <c r="B536" s="2">
@@ -4756,7 +4767,7 @@
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A537" s="10">
+      <c r="A537" s="8">
         <v>132.75</v>
       </c>
       <c r="B537" s="2">
@@ -4764,7 +4775,7 @@
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A538" s="10">
+      <c r="A538" s="8">
         <v>133</v>
       </c>
       <c r="B538" s="2">
@@ -4772,7 +4783,7 @@
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A539" s="10">
+      <c r="A539" s="8">
         <v>133.25</v>
       </c>
       <c r="B539" s="2">
@@ -4780,7 +4791,7 @@
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A540" s="10">
+      <c r="A540" s="8">
         <v>133.5</v>
       </c>
       <c r="B540" s="2">
@@ -4788,7 +4799,7 @@
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A541" s="10">
+      <c r="A541" s="8">
         <v>133.75</v>
       </c>
       <c r="B541" s="2">
@@ -4796,7 +4807,7 @@
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A542" s="10">
+      <c r="A542" s="8">
         <v>134</v>
       </c>
       <c r="B542" s="2">
@@ -4804,7 +4815,7 @@
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A543" s="10">
+      <c r="A543" s="8">
         <v>134.25</v>
       </c>
       <c r="B543" s="2">
@@ -4812,7 +4823,7 @@
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A544" s="10">
+      <c r="A544" s="8">
         <v>134.5</v>
       </c>
       <c r="B544" s="2">
@@ -4820,7 +4831,7 @@
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A545" s="10">
+      <c r="A545" s="8">
         <v>134.75</v>
       </c>
       <c r="B545" s="2">
@@ -4828,7 +4839,7 @@
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A546" s="10">
+      <c r="A546" s="8">
         <v>135</v>
       </c>
       <c r="B546" s="2">
@@ -4836,7 +4847,7 @@
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A547" s="10">
+      <c r="A547" s="8">
         <v>135.25</v>
       </c>
       <c r="B547" s="2">
@@ -4844,7 +4855,7 @@
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A548" s="10">
+      <c r="A548" s="8">
         <v>135.5</v>
       </c>
       <c r="B548" s="2">
@@ -4852,7 +4863,7 @@
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A549" s="10">
+      <c r="A549" s="8">
         <v>135.75</v>
       </c>
       <c r="B549" s="2">
@@ -4860,7 +4871,7 @@
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A550" s="10">
+      <c r="A550" s="8">
         <v>136</v>
       </c>
       <c r="B550" s="2">
@@ -4868,7 +4879,7 @@
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A551" s="10">
+      <c r="A551" s="8">
         <v>136.25</v>
       </c>
       <c r="B551" s="2">
@@ -4876,7 +4887,7 @@
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A552" s="10">
+      <c r="A552" s="8">
         <v>136.5</v>
       </c>
       <c r="B552" s="2">
@@ -4884,7 +4895,7 @@
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A553" s="10">
+      <c r="A553" s="8">
         <v>136.75</v>
       </c>
       <c r="B553" s="2">
@@ -4892,7 +4903,7 @@
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A554" s="10">
+      <c r="A554" s="8">
         <v>137</v>
       </c>
       <c r="B554" s="2">
@@ -4900,7 +4911,7 @@
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A555" s="10">
+      <c r="A555" s="8">
         <v>137.25</v>
       </c>
       <c r="B555" s="2">
@@ -4908,7 +4919,7 @@
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A556" s="10">
+      <c r="A556" s="8">
         <v>137.5</v>
       </c>
       <c r="B556" s="2">
@@ -4916,7 +4927,7 @@
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A557" s="10">
+      <c r="A557" s="8">
         <v>137.75</v>
       </c>
       <c r="B557" s="2">
@@ -4924,7 +4935,7 @@
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A558" s="10">
+      <c r="A558" s="8">
         <v>138</v>
       </c>
       <c r="B558" s="2">
@@ -4932,7 +4943,7 @@
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A559" s="10">
+      <c r="A559" s="8">
         <v>138.25</v>
       </c>
       <c r="B559" s="2">
@@ -4940,7 +4951,7 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A560" s="10">
+      <c r="A560" s="8">
         <v>138.5</v>
       </c>
       <c r="B560" s="2">
@@ -4948,7 +4959,7 @@
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A561" s="10">
+      <c r="A561" s="8">
         <v>138.75</v>
       </c>
       <c r="B561" s="2">
@@ -4956,7 +4967,7 @@
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A562" s="10">
+      <c r="A562" s="8">
         <v>139</v>
       </c>
       <c r="B562" s="2">
@@ -4964,7 +4975,7 @@
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A563" s="10">
+      <c r="A563" s="8">
         <v>139.125</v>
       </c>
       <c r="B563" s="2">
@@ -4972,7 +4983,7 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A564" s="10">
+      <c r="A564" s="8">
         <v>139.25</v>
       </c>
       <c r="B564" s="2">
@@ -4980,7 +4991,7 @@
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A565" s="10">
+      <c r="A565" s="8">
         <v>139.5</v>
       </c>
       <c r="B565" s="2">
@@ -4988,7 +4999,7 @@
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A566" s="10">
+      <c r="A566" s="8">
         <v>139.75</v>
       </c>
       <c r="B566" s="2">
@@ -4996,7 +5007,7 @@
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A567" s="10">
+      <c r="A567" s="8">
         <v>140</v>
       </c>
       <c r="B567" s="2">
@@ -5004,7 +5015,7 @@
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A568" s="10">
+      <c r="A568" s="8">
         <v>140.25</v>
       </c>
       <c r="B568" s="2">
@@ -5012,7 +5023,7 @@
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A569" s="10">
+      <c r="A569" s="8">
         <v>140.5</v>
       </c>
       <c r="B569" s="2">
@@ -5020,7 +5031,7 @@
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A570" s="10">
+      <c r="A570" s="8">
         <v>140.75</v>
       </c>
       <c r="B570" s="2">
@@ -5028,7 +5039,7 @@
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A571" s="10">
+      <c r="A571" s="8">
         <v>141</v>
       </c>
       <c r="B571" s="2">
@@ -5036,7 +5047,7 @@
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A572" s="10">
+      <c r="A572" s="8">
         <v>141.25</v>
       </c>
       <c r="B572" s="2">
@@ -5044,7 +5055,7 @@
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A573" s="10">
+      <c r="A573" s="8">
         <v>141.5</v>
       </c>
       <c r="B573" s="2">
@@ -5052,7 +5063,7 @@
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A574" s="10">
+      <c r="A574" s="8">
         <v>141.75</v>
       </c>
       <c r="B574" s="2">
@@ -5060,7 +5071,7 @@
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A575" s="10">
+      <c r="A575" s="8">
         <v>142</v>
       </c>
       <c r="B575" s="2">
@@ -5068,7 +5079,7 @@
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A576" s="10">
+      <c r="A576" s="8">
         <v>142.25</v>
       </c>
       <c r="B576" s="2">
@@ -5076,130 +5087,130 @@
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A577" s="10">
+      <c r="A577" s="8">
         <v>142.5</v>
       </c>
-      <c r="B577" s="12">
+      <c r="B577" s="10">
         <v>-0.625</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A578" s="10">
+      <c r="A578" s="8">
         <v>142.75</v>
       </c>
-      <c r="B578" s="12">
+      <c r="B578" s="10">
         <v>-1.3125</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A579" s="10">
+      <c r="A579" s="8">
         <v>143</v>
       </c>
-      <c r="B579" s="12">
+      <c r="B579" s="10">
         <v>-2.0625</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A580" s="10">
+      <c r="A580" s="8">
         <v>143.25</v>
       </c>
-      <c r="B580" s="12">
+      <c r="B580" s="10">
         <v>-2.875</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A581" s="10">
+      <c r="A581" s="8">
         <v>143.5</v>
       </c>
-      <c r="B581" s="12">
+      <c r="B581" s="10">
         <v>-3.625</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A582" s="8">
+      <c r="A582" s="6">
         <v>143.6875</v>
       </c>
-      <c r="B582" s="12">
+      <c r="B582" s="10">
         <v>-4.25</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A583" s="10">
+      <c r="A583" s="8">
         <v>143.75</v>
       </c>
-      <c r="B583" s="12">
+      <c r="B583" s="10">
         <v>-4.5625</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A584" s="10">
+      <c r="A584" s="8">
         <v>144</v>
       </c>
-      <c r="B584" s="11">
+      <c r="B584" s="9">
         <v>-5.9375</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A585" s="10">
+      <c r="A585" s="8">
         <v>144.25</v>
       </c>
-      <c r="B585" s="11">
+      <c r="B585" s="9">
         <v>-7.4375</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A586" s="10">
+      <c r="A586" s="8">
         <v>144.5</v>
       </c>
-      <c r="B586" s="11">
+      <c r="B586" s="9">
         <v>-9.0625</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A587" s="10">
+      <c r="A587" s="8">
         <v>144.75</v>
       </c>
-      <c r="B587" s="11">
+      <c r="B587" s="9">
         <v>-10.875</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A588" s="10">
+      <c r="A588" s="8">
         <v>145</v>
       </c>
-      <c r="B588" s="11">
+      <c r="B588" s="9">
         <v>-12.9375</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A589" s="10">
+      <c r="A589" s="8">
         <v>145.25</v>
       </c>
-      <c r="B589" s="11">
+      <c r="B589" s="9">
         <v>-15.5</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A590" s="8">
+      <c r="A590" s="6">
         <v>145.32499999999999</v>
       </c>
-      <c r="B590" s="9">
+      <c r="B590" s="7">
         <v>-16.25</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A591" s="10">
+      <c r="A591" s="8">
         <v>145.5</v>
       </c>
-      <c r="B591" s="11">
+      <c r="B591" s="9">
         <v>-19</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A592" s="8">
+      <c r="A592" s="6">
         <v>145.625</v>
       </c>
-      <c r="B592" s="9">
+      <c r="B592" s="7">
         <v>-28.25</v>
       </c>
     </row>
@@ -5215,8 +5226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2F5754-9729-4A8E-AF49-7DBAEF5F0864}">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5230,1408 +5241,1411 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="11">
         <v>-0.5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="15">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="15">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="12">
         <v>35.125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="12">
         <v>35.25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="15">
         <v>13</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="12">
         <v>35.3125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="12">
         <v>35.375</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="12">
         <v>35.4375</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="12">
         <v>35.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="12">
         <v>35.5625</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="12">
         <v>35.625</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="15">
         <v>19</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="12">
         <v>35.6875</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="15">
         <v>20</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="12">
         <v>35.75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="12">
         <v>35.8125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="12">
         <v>35.875</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="15">
         <v>23</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="12">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="11">
         <v>24</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="12">
         <v>36.0625</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="12">
         <v>36.125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="15">
         <v>26</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="12">
         <v>36.1875</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="15">
         <v>27</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="12">
         <v>36.25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="15">
         <v>28</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="12">
         <v>36.3125</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="12">
         <v>36.375</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="15">
         <v>30</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="12">
         <v>36.4375</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="12">
         <v>36.5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="15">
         <v>32</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="12">
         <v>36.5625</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="15">
         <v>33</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="12">
         <v>36.625</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="15">
         <v>34</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="12">
         <v>36.6875</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="15">
         <v>35</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="12">
         <v>36.8125</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="11">
         <v>36</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="12">
         <v>36.875</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="15">
         <v>37</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="12">
         <v>36.9375</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="15">
         <v>38</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="15">
         <v>39</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="12">
         <v>37.0625</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="15">
         <v>40</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="12">
         <v>37.125</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="15">
         <v>41</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="12">
         <v>37.1875</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="15">
         <v>42</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="12">
+        <v>37.21875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>42.375</v>
+      </c>
+      <c r="B46" s="12">
         <v>37.25</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>43</v>
+      </c>
+      <c r="B47" s="12">
+        <v>37.3125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
+        <v>44</v>
+      </c>
+      <c r="B48" s="12">
+        <v>37.375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>45</v>
+      </c>
+      <c r="B49" s="12">
+        <v>37.4375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
+        <v>46</v>
+      </c>
+      <c r="B50" s="12">
+        <v>37.4375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
+        <v>47</v>
+      </c>
+      <c r="B51" s="12">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>48</v>
+      </c>
+      <c r="B52" s="12">
+        <v>37.5625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
+        <v>49</v>
+      </c>
+      <c r="B53" s="15">
+        <v>37.625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
+        <v>50</v>
+      </c>
+      <c r="B54" s="15">
+        <v>37.625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15">
+        <v>37.6875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
+        <v>52</v>
+      </c>
+      <c r="B56" s="15">
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
+        <v>53</v>
+      </c>
+      <c r="B57" s="15">
+        <v>37.8125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
+        <v>54</v>
+      </c>
+      <c r="B58" s="15">
+        <v>37.8125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="15">
+        <v>55</v>
+      </c>
+      <c r="B59" s="15">
+        <v>37.875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="15">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15">
+        <v>37.9375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="15">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15">
+        <v>37.9375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="15">
+        <v>58</v>
+      </c>
+      <c r="B62" s="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
+        <v>59</v>
+      </c>
+      <c r="B63" s="15">
+        <v>38.0625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
+        <v>60</v>
+      </c>
+      <c r="B64" s="15">
+        <v>38.125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
+        <v>61</v>
+      </c>
+      <c r="B65" s="15">
+        <v>38.1875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="15">
+        <v>62</v>
+      </c>
+      <c r="B66" s="15">
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="15">
+        <v>63</v>
+      </c>
+      <c r="B67" s="15">
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="15">
+        <v>64</v>
+      </c>
+      <c r="B68" s="15">
+        <v>38.3125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="15">
+        <v>65</v>
+      </c>
+      <c r="B69" s="15">
+        <v>38.375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="15">
+        <v>66</v>
+      </c>
+      <c r="B70" s="15">
+        <v>38.4375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="15">
+        <v>67</v>
+      </c>
+      <c r="B71" s="15">
+        <v>38.4375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="15">
+        <v>68</v>
+      </c>
+      <c r="B72" s="15">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
+        <v>69</v>
+      </c>
+      <c r="B73" s="15">
+        <v>38.53125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="15">
+        <v>69.75</v>
+      </c>
+      <c r="B74" s="15">
+        <v>38.5625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="15">
+        <v>70</v>
+      </c>
+      <c r="B75" s="15">
+        <v>38.625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="15">
+        <v>71</v>
+      </c>
+      <c r="B76" s="15">
+        <v>38.6875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
+        <v>72</v>
+      </c>
+      <c r="B77" s="15">
+        <v>38.8125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="15">
+        <v>73</v>
+      </c>
+      <c r="B78" s="15">
+        <v>38.875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="15">
+        <v>74</v>
+      </c>
+      <c r="B79" s="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="15">
+        <v>75</v>
+      </c>
+      <c r="B80" s="15">
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="15">
+        <v>76</v>
+      </c>
+      <c r="B81" s="15">
+        <v>39.125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="15">
+        <v>77</v>
+      </c>
+      <c r="B82" s="15">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="15">
+        <v>78</v>
+      </c>
+      <c r="B83" s="15">
+        <v>39.3125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="15">
+        <v>79</v>
+      </c>
+      <c r="B84" s="15">
+        <v>39.4375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="15">
+        <v>80</v>
+      </c>
+      <c r="B85" s="15">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="15">
+        <v>81</v>
+      </c>
+      <c r="B86" s="15">
+        <v>39.625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="15">
+        <v>82</v>
+      </c>
+      <c r="B87" s="15">
+        <v>39.6875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="15">
+        <v>83</v>
+      </c>
+      <c r="B88" s="15">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="15">
+        <v>84</v>
+      </c>
+      <c r="B89" s="15">
+        <v>39.875</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="15">
+        <v>85</v>
+      </c>
+      <c r="B90" s="15">
+        <v>39.9375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="15">
+        <v>86</v>
+      </c>
+      <c r="B91" s="15">
+        <v>40.0625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="15">
+        <v>87</v>
+      </c>
+      <c r="B92" s="15">
+        <v>40.125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="15">
+        <v>88</v>
+      </c>
+      <c r="B93" s="15">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="15">
+        <v>89</v>
+      </c>
+      <c r="B94" s="15">
+        <v>40.3125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="15">
+        <v>90</v>
+      </c>
+      <c r="B95" s="15">
+        <v>40.375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="15">
+        <v>91</v>
+      </c>
+      <c r="B96" s="15">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="15">
+        <v>92</v>
+      </c>
+      <c r="B97" s="15">
+        <v>40.5625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="15">
+        <v>93</v>
+      </c>
+      <c r="B98" s="15">
+        <v>40.6875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
+        <v>94</v>
+      </c>
+      <c r="B99" s="15">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="15">
+        <v>95</v>
+      </c>
+      <c r="B100" s="15">
+        <v>40.8125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>96</v>
+      </c>
+      <c r="B101" s="15">
+        <v>40.9375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="15">
+        <v>97</v>
+      </c>
+      <c r="B102" s="15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="15">
+        <v>98</v>
+      </c>
+      <c r="B103" s="15">
+        <v>41.125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="15">
+        <v>99</v>
+      </c>
+      <c r="B104" s="15">
+        <v>41.1875</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="15">
+        <v>100</v>
+      </c>
+      <c r="B105" s="15">
+        <v>41.3125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="15">
+        <v>101</v>
+      </c>
+      <c r="B106" s="15">
+        <v>41.375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="15">
+        <v>102</v>
+      </c>
+      <c r="B107" s="15">
+        <v>41.4375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
+        <v>103</v>
+      </c>
+      <c r="B108" s="15">
+        <v>41.5625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="15">
+        <v>104</v>
+      </c>
+      <c r="B109" s="15">
+        <v>41.625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="15">
+        <v>105</v>
+      </c>
+      <c r="B110" s="15">
+        <v>41.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="15">
+        <v>106</v>
+      </c>
+      <c r="B111" s="15">
+        <v>41.8125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="15">
+        <v>107</v>
+      </c>
+      <c r="B112" s="15">
+        <v>41.9375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="15">
+        <v>108</v>
+      </c>
+      <c r="B113" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="15">
+        <v>109</v>
+      </c>
+      <c r="B114" s="15">
+        <v>42.0625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="15">
+        <v>110</v>
+      </c>
+      <c r="B115" s="15">
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="15">
+        <v>111</v>
+      </c>
+      <c r="B116" s="15">
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="15">
+        <v>112</v>
+      </c>
+      <c r="B117" s="15">
         <v>42.375</v>
       </c>
-      <c r="B46" s="7">
-        <v>37.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>43</v>
-      </c>
-      <c r="B47" s="7">
-        <v>37.3125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>44</v>
-      </c>
-      <c r="B48" s="7">
-        <v>37.375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>45</v>
-      </c>
-      <c r="B49" s="7">
-        <v>37.4375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>46</v>
-      </c>
-      <c r="B50" s="7">
-        <v>37.4375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>47</v>
-      </c>
-      <c r="B51" s="7">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
-        <v>48</v>
-      </c>
-      <c r="B52" s="7">
-        <v>37.5625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>49</v>
-      </c>
-      <c r="B53" s="7">
-        <v>37.625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
-        <v>50</v>
-      </c>
-      <c r="B54" s="7">
-        <v>37.625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
-        <v>51</v>
-      </c>
-      <c r="B55" s="7">
-        <v>37.6875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
-        <v>52</v>
-      </c>
-      <c r="B56" s="7">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="15">
+        <v>113</v>
+      </c>
+      <c r="B118" s="15">
+        <v>42.4375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="15">
+        <v>114</v>
+      </c>
+      <c r="B119" s="15">
+        <v>42.5625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="15">
+        <v>115</v>
+      </c>
+      <c r="B120" s="15">
+        <v>42.5625</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="15">
+        <v>115.375</v>
+      </c>
+      <c r="B121" s="15">
+        <v>42.625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="15">
+        <v>116</v>
+      </c>
+      <c r="B122" s="15">
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="15">
+        <v>117</v>
+      </c>
+      <c r="B123" s="15">
+        <v>41.875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="15">
+        <v>118</v>
+      </c>
+      <c r="B124" s="15">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="15">
+        <v>119</v>
+      </c>
+      <c r="B125" s="15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="15">
+        <v>120</v>
+      </c>
+      <c r="B126" s="15">
+        <v>40.375</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="15">
+        <v>121</v>
+      </c>
+      <c r="B127" s="15">
+        <v>39.875</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="15">
+        <v>122</v>
+      </c>
+      <c r="B128" s="15">
+        <v>39.125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="15">
+        <v>123</v>
+      </c>
+      <c r="B129" s="15">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="15">
+        <v>124</v>
+      </c>
+      <c r="B130" s="15">
         <v>37.75</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
-        <v>53</v>
-      </c>
-      <c r="B57" s="7">
-        <v>37.8125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
-        <v>54</v>
-      </c>
-      <c r="B58" s="7">
-        <v>37.8125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
-        <v>55</v>
-      </c>
-      <c r="B59" s="7">
-        <v>37.875</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
-        <v>56</v>
-      </c>
-      <c r="B60" s="7">
-        <v>37.9375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
-        <v>57</v>
-      </c>
-      <c r="B61" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
-        <v>58</v>
-      </c>
-      <c r="B62" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
-        <v>59</v>
-      </c>
-      <c r="B63" s="7">
-        <v>38.0625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
-        <v>60</v>
-      </c>
-      <c r="B64" s="7">
-        <v>38.125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
-        <v>61</v>
-      </c>
-      <c r="B65" s="7">
-        <v>38.1875</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
-        <v>62</v>
-      </c>
-      <c r="B66" s="7">
-        <v>38.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
-        <v>63</v>
-      </c>
-      <c r="B67" s="7">
-        <v>38.25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
-        <v>64</v>
-      </c>
-      <c r="B68" s="7">
-        <v>38.3125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
-        <v>65</v>
-      </c>
-      <c r="B69" s="7">
-        <v>38.375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
-        <v>66</v>
-      </c>
-      <c r="B70" s="7">
-        <v>38.4375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
-        <v>67</v>
-      </c>
-      <c r="B71" s="7">
-        <v>38.4375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
-        <v>68</v>
-      </c>
-      <c r="B72" s="7">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="6">
-        <v>69</v>
-      </c>
-      <c r="B73" s="7">
-        <v>38.5625</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
-        <v>69.75</v>
-      </c>
-      <c r="B74" s="7">
-        <v>38.5625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
-        <v>70</v>
-      </c>
-      <c r="B75" s="7">
-        <v>38.625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
-        <v>71</v>
-      </c>
-      <c r="B76" s="7">
-        <v>38.6875</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
-        <v>72</v>
-      </c>
-      <c r="B77" s="7">
-        <v>38.8125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
-        <v>73</v>
-      </c>
-      <c r="B78" s="7">
-        <v>38.875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
-        <v>74</v>
-      </c>
-      <c r="B79" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
-        <v>75</v>
-      </c>
-      <c r="B80" s="7">
-        <v>39.0625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
-        <v>76</v>
-      </c>
-      <c r="B81" s="7">
-        <v>39.125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
-        <v>77</v>
-      </c>
-      <c r="B82" s="7">
-        <v>39.25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
-        <v>78</v>
-      </c>
-      <c r="B83" s="7">
-        <v>39.3125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
-        <v>79</v>
-      </c>
-      <c r="B84" s="7">
-        <v>39.4375</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
-        <v>80</v>
-      </c>
-      <c r="B85" s="7">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
-        <v>81</v>
-      </c>
-      <c r="B86" s="7">
-        <v>39.625</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
-        <v>82</v>
-      </c>
-      <c r="B87" s="7">
-        <v>39.6875</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
-        <v>83</v>
-      </c>
-      <c r="B88" s="7">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
-        <v>84</v>
-      </c>
-      <c r="B89" s="7">
-        <v>39.875</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
-        <v>85</v>
-      </c>
-      <c r="B90" s="7">
-        <v>39.9375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
-        <v>86</v>
-      </c>
-      <c r="B91" s="7">
-        <v>40.0625</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
-        <v>87</v>
-      </c>
-      <c r="B92" s="7">
-        <v>40.125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
-        <v>88</v>
-      </c>
-      <c r="B93" s="7">
-        <v>40.25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
-        <v>89</v>
-      </c>
-      <c r="B94" s="7">
-        <v>40.3125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
-        <v>90</v>
-      </c>
-      <c r="B95" s="7">
-        <v>40.375</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
-        <v>91</v>
-      </c>
-      <c r="B96" s="7">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
-        <v>92</v>
-      </c>
-      <c r="B97" s="7">
-        <v>40.5625</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
-        <v>93</v>
-      </c>
-      <c r="B98" s="7">
-        <v>40.6875</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
-        <v>94</v>
-      </c>
-      <c r="B99" s="7">
-        <v>40.75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
-        <v>95</v>
-      </c>
-      <c r="B100" s="7">
-        <v>40.8125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
-        <v>96</v>
-      </c>
-      <c r="B101" s="7">
-        <v>40.9375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
-        <v>97</v>
-      </c>
-      <c r="B102" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="6">
-        <v>98</v>
-      </c>
-      <c r="B103" s="7">
-        <v>41.125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="6">
-        <v>99</v>
-      </c>
-      <c r="B104" s="7">
-        <v>41.1875</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="6">
-        <v>100</v>
-      </c>
-      <c r="B105" s="7">
-        <v>41.3125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
-        <v>101</v>
-      </c>
-      <c r="B106" s="7">
-        <v>41.375</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="6">
-        <v>102</v>
-      </c>
-      <c r="B107" s="7">
-        <v>41.4375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
-        <v>103</v>
-      </c>
-      <c r="B108" s="7">
-        <v>41.5625</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
-        <v>104</v>
-      </c>
-      <c r="B109" s="7">
-        <v>41.625</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
-        <v>105</v>
-      </c>
-      <c r="B110" s="7">
-        <v>41.75</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
-        <v>106</v>
-      </c>
-      <c r="B111" s="7">
-        <v>41.8125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
-        <v>107</v>
-      </c>
-      <c r="B112" s="7">
-        <v>41.9375</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
-        <v>108</v>
-      </c>
-      <c r="B113" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
-        <v>109</v>
-      </c>
-      <c r="B114" s="7">
-        <v>42.0625</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
-        <v>110</v>
-      </c>
-      <c r="B115" s="7">
-        <v>42.1875</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
-        <v>111</v>
-      </c>
-      <c r="B116" s="7">
-        <v>42.25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
-        <v>112</v>
-      </c>
-      <c r="B117" s="7">
-        <v>42.375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
-        <v>113</v>
-      </c>
-      <c r="B118" s="7">
-        <v>42.4375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
-        <v>114</v>
-      </c>
-      <c r="B119" s="7">
-        <v>42.5625</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="6">
-        <v>115</v>
-      </c>
-      <c r="B120" s="7">
-        <v>42.625</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="6">
-        <v>115.375</v>
-      </c>
-      <c r="B121" s="7">
-        <v>42.625</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
-        <v>116</v>
-      </c>
-      <c r="B122" s="7">
-        <v>42.5625</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="6">
-        <v>117</v>
-      </c>
-      <c r="B123" s="7">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="6">
-        <v>118</v>
-      </c>
-      <c r="B124" s="7">
-        <v>42.375</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="6">
-        <v>119</v>
-      </c>
-      <c r="B125" s="7">
-        <v>42.25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="6">
-        <v>120</v>
-      </c>
-      <c r="B126" s="7">
-        <v>42.125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="6">
-        <v>121</v>
-      </c>
-      <c r="B127" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="6">
-        <v>122</v>
-      </c>
-      <c r="B128" s="7">
-        <v>41.875</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="6">
-        <v>123</v>
-      </c>
-      <c r="B129" s="7">
-        <v>41.1875</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="6">
-        <v>124</v>
-      </c>
-      <c r="B130" s="7">
-        <v>39.9375</v>
-      </c>
-    </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="6">
+      <c r="A131" s="15">
         <v>125</v>
       </c>
-      <c r="B131" s="7">
-        <v>38.6875</v>
+      <c r="B131" s="15">
+        <v>36.9375</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="6">
+      <c r="A132" s="15">
         <v>126</v>
       </c>
-      <c r="B132" s="7">
-        <v>37.375</v>
+      <c r="B132" s="15">
+        <v>36.125</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="6">
+      <c r="A133" s="15">
         <v>127</v>
       </c>
-      <c r="B133" s="7">
-        <v>36.125</v>
+      <c r="B133" s="15">
+        <v>35.125</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="6">
+      <c r="A134" s="15">
         <v>128</v>
       </c>
-      <c r="B134" s="7">
-        <v>34.875</v>
+      <c r="B134" s="15">
+        <v>34.125</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="6">
+      <c r="A135" s="15">
         <v>129</v>
       </c>
-      <c r="B135" s="7">
-        <v>33.5625</v>
+      <c r="B135" s="15">
+        <v>33.4375</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="6">
+      <c r="A136" s="15">
         <v>129.625</v>
       </c>
-      <c r="B136" s="7"/>
+      <c r="B136" s="15">
+        <v>32.75</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="6">
+      <c r="A137" s="15">
         <v>130</v>
       </c>
-      <c r="B137" s="7">
-        <v>32.3125</v>
+      <c r="B137" s="15">
+        <v>31.875</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="6">
+      <c r="A138" s="15">
         <v>131</v>
       </c>
-      <c r="B138" s="7">
-        <v>31</v>
+      <c r="B138" s="15">
+        <v>30.625</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="6">
+      <c r="A139" s="15">
         <v>132</v>
       </c>
-      <c r="B139" s="7">
-        <v>29.6875</v>
+      <c r="B139" s="15">
+        <v>29.375</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="6">
+      <c r="A140" s="15">
         <v>133</v>
       </c>
-      <c r="B140" s="7">
-        <v>28.375</v>
+      <c r="B140" s="15">
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="6">
+      <c r="A141" s="15">
         <v>134</v>
       </c>
-      <c r="B141" s="7">
-        <v>27.0625</v>
+      <c r="B141" s="15">
+        <v>26.625</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="6">
+      <c r="A142" s="15">
         <v>135</v>
       </c>
-      <c r="B142" s="7">
-        <v>25.6875</v>
+      <c r="B142" s="15">
+        <v>25.125</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="6">
+      <c r="A143" s="15">
         <v>136</v>
       </c>
-      <c r="B143" s="7">
-        <v>23.9375</v>
+      <c r="B143" s="15">
+        <v>23.5</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="6">
+      <c r="A144" s="15">
         <v>137</v>
       </c>
-      <c r="B144" s="7">
-        <v>22.1875</v>
+      <c r="B144" s="15">
+        <v>21.9375</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="6">
+      <c r="A145" s="15">
         <v>138</v>
       </c>
-      <c r="B145" s="7">
-        <v>20.5</v>
+      <c r="B145" s="15">
+        <v>20.125</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="6">
+      <c r="A146" s="15">
         <v>139</v>
       </c>
-      <c r="B146" s="7">
-        <v>18.75</v>
+      <c r="B146" s="15">
+        <v>18.25</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="6">
+      <c r="A147" s="15">
         <v>140</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="6">
+      <c r="A148" s="15">
         <v>140.125</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="15">
         <v>16.75</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="6">
+      <c r="A149" s="15">
         <v>141</v>
       </c>
-      <c r="B149" s="7">
-        <v>14.8125</v>
+      <c r="B149" s="15">
+        <v>14.0625</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="6">
+      <c r="A150" s="15">
         <v>142</v>
       </c>
-      <c r="B150" s="7">
-        <v>12.5</v>
+      <c r="B150" s="15">
+        <v>11.75</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="6">
+      <c r="A151" s="15">
         <v>143</v>
       </c>
-      <c r="B151" s="7">
-        <v>9.9375</v>
+      <c r="B151" s="15">
+        <v>9.0625</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="6">
+      <c r="A152" s="15">
         <v>144</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="15">
         <v>7.1875</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="6">
+      <c r="A153" s="15">
         <v>144.75</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="15">
         <v>4.75</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="6">
+      <c r="A154" s="15">
         <v>145</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="15">
         <v>2.125</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="6">
+      <c r="A155" s="13">
         <v>145.875</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="6">
+      <c r="A156" s="13">
         <v>146.0625</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="14">
         <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="6">
+      <c r="A157" s="13">
         <v>146.25</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="14">
         <v>-2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="6">
+      <c r="A158" s="13">
         <v>146.4375</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="14">
         <v>-3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="6">
+      <c r="A159" s="13">
         <v>146.625</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="14">
         <v>-4</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="6">
+      <c r="A160" s="13">
         <v>146.8125</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="14">
         <v>-5</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="6">
+      <c r="A161" s="13">
         <v>147</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="14">
         <v>-6</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="6">
+      <c r="A162" s="13">
         <v>147.125</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="14">
         <v>-7</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="6">
+      <c r="A163" s="13">
         <v>147.1875</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="14">
         <v>-7.25</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="6">
+      <c r="A164" s="13">
         <v>147.3125</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="14">
         <v>-8</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="6">
+      <c r="A165" s="13">
         <v>147.4375</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="14">
         <v>-9</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="6">
+      <c r="A166" s="13">
         <v>147.5625</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="14">
         <v>-10</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="6">
+      <c r="A167" s="13">
         <v>147.6875</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="14">
         <v>-11</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="6">
+      <c r="A168" s="13">
         <v>147.8125</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="14">
         <v>-12</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="6">
+      <c r="A169" s="13">
         <v>147.9375</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="14">
         <v>-13</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="6">
+      <c r="A170" s="13">
         <v>148</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170" s="14">
         <v>-14</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="6">
+      <c r="A171" s="13">
         <v>148.125</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="14">
         <v>-15</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="6">
+      <c r="A172" s="13">
         <v>148.1875</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="14">
         <v>-16</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="6">
+      <c r="A173" s="13">
         <v>148.25</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="14">
         <v>-17</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="6">
+      <c r="A174" s="13">
         <v>148.3125</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="14">
         <v>-18</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="6">
+      <c r="A175" s="13">
         <v>148.375</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="14">
         <v>-19</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="6">
+      <c r="A176" s="13">
         <v>148.4375</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="14">
         <v>-20</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="6"/>
-      <c r="B177" s="7"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>